--- a/static/Needs Table.xlsx
+++ b/static/Needs Table.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12105" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12105" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Needs" sheetId="1" r:id="rId1"/>
     <sheet name="Interactions" sheetId="2" r:id="rId2"/>
+    <sheet name="Buildings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -449,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -511,4 +512,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/static/Needs Table.xlsx
+++ b/static/Needs Table.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Athletics</t>
   </si>
@@ -71,6 +71,54 @@
   </si>
   <si>
     <t>Police</t>
+  </si>
+  <si>
+    <t>Building Name</t>
+  </si>
+  <si>
+    <t>Building Type</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Slater Hall</t>
+  </si>
+  <si>
+    <t>Dorm</t>
+  </si>
+  <si>
+    <t>Real Width (m)</t>
+  </si>
+  <si>
+    <t>Real Length (m)</t>
+  </si>
+  <si>
+    <t>Real Height (m)</t>
+  </si>
+  <si>
+    <t>Simulation Width (mm)</t>
+  </si>
+  <si>
+    <t>Simulation Length (mm)</t>
+  </si>
+  <si>
+    <t>Simulation Height (mm)</t>
+  </si>
+  <si>
+    <t>Sharpe Refectory</t>
+  </si>
+  <si>
+    <t>Refectory</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
@@ -106,13 +154,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -123,6 +181,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Building Name"/>
+    <tableColumn id="2" name="Building Type"/>
+    <tableColumn id="3" name="Real Width (m)"/>
+    <tableColumn id="4" name="Real Length (m)"/>
+    <tableColumn id="5" name="Real Height (m)"/>
+    <tableColumn id="6" name="Simulation Width (mm)" dataDxfId="1">
+      <calculatedColumnFormula>Table1[Real Width (m)]*$J$4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Simulation Length (mm)" dataDxfId="0">
+      <calculatedColumnFormula>Table1[Real Length (m)]*$J$4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Simulation Height (mm)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,12 +595,118 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>13.75</v>
+      </c>
+      <c r="F2">
+        <f>Table1[Real Width (m)]*$J$4</f>
+        <v>35</v>
+      </c>
+      <c r="G2">
+        <f>Table1[Real Length (m)]*$J$4</f>
+        <v>19.25</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <f>Table1[Real Width (m)]*$J$4</f>
+        <v>81.199999999999989</v>
+      </c>
+      <c r="G3">
+        <f>Table1[Real Length (m)]*$J$4</f>
+        <v>84</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1.4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/static/Needs Table.xlsx
+++ b/static/Needs Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12105" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Needs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Athletics</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>Geochem</t>
+  </si>
+  <si>
+    <t>Academic</t>
   </si>
 </sst>
 </file>
@@ -154,11 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,8 +191,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H4" totalsRowShown="0">
+  <autoFilter ref="A1:H4"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Building Name"/>
     <tableColumn id="2" name="Building Type"/>
@@ -597,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,6 +703,26 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>89.619</v>
+      </c>
+      <c r="D4">
+        <v>76.852000000000004</v>
+      </c>
+      <c r="F4" s="2">
+        <f>Table1[Real Width (m)]*$J$4</f>
+        <v>125.46659999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <f>Table1[Real Length (m)]*$J$4</f>
+        <v>107.5928</v>
+      </c>
       <c r="J4">
         <v>1.4</v>
       </c>

--- a/static/Needs Table.xlsx
+++ b/static/Needs Table.xlsx
@@ -605,7 +605,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,11 +664,11 @@
       </c>
       <c r="F2">
         <f>Table1[Real Width (m)]*$J$4</f>
-        <v>35</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="G2">
         <f>Table1[Real Length (m)]*$J$4</f>
-        <v>19.25</v>
+        <v>15.400000000000002</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -692,11 +692,11 @@
       </c>
       <c r="F3">
         <f>Table1[Real Width (m)]*$J$4</f>
-        <v>81.199999999999989</v>
+        <v>64.960000000000008</v>
       </c>
       <c r="G3">
         <f>Table1[Real Length (m)]*$J$4</f>
-        <v>84</v>
+        <v>67.2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>29</v>
@@ -717,14 +717,14 @@
       </c>
       <c r="F4" s="2">
         <f>Table1[Real Width (m)]*$J$4</f>
-        <v>125.46659999999999</v>
+        <v>100.37328000000001</v>
       </c>
       <c r="G4" s="2">
         <f>Table1[Real Length (m)]*$J$4</f>
-        <v>107.5928</v>
+        <v>86.074240000000017</v>
       </c>
       <c r="J4">
-        <v>1.4</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
